--- a/biology/Botanique/Begonia_conchifolia/Begonia_conchifolia.xlsx
+++ b/biology/Botanique/Begonia_conchifolia/Begonia_conchifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Begonia conchifolia est une espèce de plantes de la famille des Begoniaceae. Ce bégonia rhizomateux est originaire du Costa Rica.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire des pays suivants : Costa Rica ; Panama[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire des pays suivants : Costa Rica ; Panama.
 </t>
         </is>
       </c>
@@ -568,13 +584,50 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Begonia conchifolia fait partie de la section Gireoudia du genre Begonia, famille des Begoniaceae[3]. En classification phylogénétique APG IV (2016)[4], comme classification phylogénétique APG III (2009)[5], celle-ci est classée dans l'ordre des Cucurbitales, alors que dans la classification classique de Cronquist (1981)[6] les Begoniaceae font partie de l'ordre des Violales.
-L'espèce a été décrite en 1851 par Albert Gottfried Dietrich (1795-1856). L'épithète spécifique conchifolia signifie « à feuilles en forme de conque »[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia conchifolia fait partie de la section Gireoudia du genre Begonia, famille des Begoniaceae. En classification phylogénétique APG IV (2016), comme classification phylogénétique APG III (2009), celle-ci est classée dans l'ordre des Cucurbitales, alors que dans la classification classique de Cronquist (1981) les Begoniaceae font partie de l'ordre des Violales.
+L'espèce a été décrite en 1851 par Albert Gottfried Dietrich (1795-1856). L'épithète spécifique conchifolia signifie « à feuilles en forme de conque ».
 Publication originale : Allgemeine Gartenzeitung 19(33): 257–259. 1851.
-Liste des variétés
-Selon Tropicos                                           (6 février 2017)[8] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Begonia_conchifolia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Begonia_conchifolia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (6 février 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Begonia conchifolia var. conchifolia
 variété Begonia conchifolia var. rubrimacula Golding</t>
         </is>
